--- a/New/Excel Project Dataset.xlsx
+++ b/New/Excel Project Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0CF8F3-0425-4BBE-82FB-154F0278192B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF601A5-9F4E-4F7E-8F9D-BFD1005E7446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16442" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16234" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -43114,13 +43114,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69DB42A-52B8-4785-B174-B6892EABD019}">
-  <dimension ref="A1:M1027"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1027"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -84160,1072 +84163,6 @@
         <v>53</v>
       </c>
       <c r="M1001" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1002">
-        <v>13507</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1002" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E1002">
-        <v>2</v>
-      </c>
-      <c r="F1002" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1002" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1002" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1002">
-        <v>0</v>
-      </c>
-      <c r="J1002" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1002" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1002">
-        <v>50</v>
-      </c>
-      <c r="M1002" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1003">
-        <v>19280</v>
-      </c>
-      <c r="B1003" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1003" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1003" s="1">
-        <v>120000</v>
-      </c>
-      <c r="E1003">
-        <v>2</v>
-      </c>
-      <c r="F1003" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1003" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1003" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1003">
-        <v>1</v>
-      </c>
-      <c r="J1003" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1003" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1003">
-        <v>40</v>
-      </c>
-      <c r="M1003" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1004">
-        <v>22173</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1004" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E1004">
-        <v>3</v>
-      </c>
-      <c r="F1004" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1004" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1004" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1004">
-        <v>2</v>
-      </c>
-      <c r="J1004" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1004" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1004">
-        <v>54</v>
-      </c>
-      <c r="M1004" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1005">
-        <v>12697</v>
-      </c>
-      <c r="B1005" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1005" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1005" s="1">
-        <v>90000</v>
-      </c>
-      <c r="E1005">
-        <v>0</v>
-      </c>
-      <c r="F1005" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1005" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1005" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1005">
-        <v>4</v>
-      </c>
-      <c r="J1005" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1005" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1005">
-        <v>36</v>
-      </c>
-      <c r="M1005" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1006">
-        <v>11434</v>
-      </c>
-      <c r="B1006" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1006" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1006" s="1">
-        <v>170000</v>
-      </c>
-      <c r="E1006">
-        <v>5</v>
-      </c>
-      <c r="F1006" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1006" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1006" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1006">
-        <v>0</v>
-      </c>
-      <c r="J1006" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1006" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1006">
-        <v>55</v>
-      </c>
-      <c r="M1006" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1007">
-        <v>25323</v>
-      </c>
-      <c r="B1007" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1007" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1007" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E1007">
-        <v>2</v>
-      </c>
-      <c r="F1007" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1007" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1007" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1007">
-        <v>1</v>
-      </c>
-      <c r="J1007" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1007" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1007">
-        <v>35</v>
-      </c>
-      <c r="M1007" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1008">
-        <v>23542</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1008" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1008" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E1008">
-        <v>1</v>
-      </c>
-      <c r="F1008" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1008" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1008" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1008">
-        <v>1</v>
-      </c>
-      <c r="J1008" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1008" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1008">
-        <v>45</v>
-      </c>
-      <c r="M1008" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1009">
-        <v>20870</v>
-      </c>
-      <c r="B1009" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1009" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1009" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E1009">
-        <v>2</v>
-      </c>
-      <c r="F1009" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1009" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1009" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1009">
-        <v>1</v>
-      </c>
-      <c r="J1009" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1009" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1009">
-        <v>38</v>
-      </c>
-      <c r="M1009" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1010">
-        <v>23316</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1010" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1010" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E1010">
-        <v>3</v>
-      </c>
-      <c r="F1010" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1010" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1010" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1010">
-        <v>2</v>
-      </c>
-      <c r="J1010" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1010" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1010">
-        <v>59</v>
-      </c>
-      <c r="M1010" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1011">
-        <v>12610</v>
-      </c>
-      <c r="B1011" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1011" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1011" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E1011">
-        <v>1</v>
-      </c>
-      <c r="F1011" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1011" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1011" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1011">
-        <v>0</v>
-      </c>
-      <c r="J1011" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1011" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1011">
-        <v>47</v>
-      </c>
-      <c r="M1011" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1012">
-        <v>27183</v>
-      </c>
-      <c r="B1012" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1012" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1012" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E1012">
-        <v>2</v>
-      </c>
-      <c r="F1012" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1012" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1012" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1012">
-        <v>1</v>
-      </c>
-      <c r="J1012" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1012" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1012">
-        <v>35</v>
-      </c>
-      <c r="M1012" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1013">
-        <v>25940</v>
-      </c>
-      <c r="B1013" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1013" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1013" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E1013">
-        <v>2</v>
-      </c>
-      <c r="F1013" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1013" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1013" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1013">
-        <v>2</v>
-      </c>
-      <c r="J1013" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1013" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1013">
-        <v>55</v>
-      </c>
-      <c r="M1013" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1014">
-        <v>25598</v>
-      </c>
-      <c r="B1014" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1014" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1014" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E1014">
-        <v>0</v>
-      </c>
-      <c r="F1014" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1014" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1014" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1014">
-        <v>0</v>
-      </c>
-      <c r="J1014" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1014" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1014">
-        <v>36</v>
-      </c>
-      <c r="M1014" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1015">
-        <v>21564</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1015" s="1">
-        <v>80000</v>
-      </c>
-      <c r="E1015">
-        <v>0</v>
-      </c>
-      <c r="F1015" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1015" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1015" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1015">
-        <v>4</v>
-      </c>
-      <c r="J1015" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1015" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1015">
-        <v>35</v>
-      </c>
-      <c r="M1015" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1016">
-        <v>19193</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1016" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E1016">
-        <v>2</v>
-      </c>
-      <c r="F1016" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1016" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1016" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1016">
-        <v>0</v>
-      </c>
-      <c r="J1016" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1016" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1016">
-        <v>35</v>
-      </c>
-      <c r="M1016" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1017">
-        <v>26412</v>
-      </c>
-      <c r="B1017" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1017" s="1">
-        <v>80000</v>
-      </c>
-      <c r="E1017">
-        <v>5</v>
-      </c>
-      <c r="F1017" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1017" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1017" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1017">
-        <v>3</v>
-      </c>
-      <c r="J1017" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1017" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1017">
-        <v>56</v>
-      </c>
-      <c r="M1017" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1018">
-        <v>27184</v>
-      </c>
-      <c r="B1018" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1018" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1018" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E1018">
-        <v>2</v>
-      </c>
-      <c r="F1018" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1018" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1018" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1018">
-        <v>1</v>
-      </c>
-      <c r="J1018" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1018" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1018">
-        <v>34</v>
-      </c>
-      <c r="M1018" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1019">
-        <v>12590</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1019" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1019" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E1019">
-        <v>1</v>
-      </c>
-      <c r="F1019" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1019" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1019" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1019">
-        <v>0</v>
-      </c>
-      <c r="J1019" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1019" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1019">
-        <v>63</v>
-      </c>
-      <c r="M1019" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1020">
-        <v>17841</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1020" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1020" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E1020">
-        <v>0</v>
-      </c>
-      <c r="F1020" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1020" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1020" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1020">
-        <v>1</v>
-      </c>
-      <c r="J1020" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1020" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1020">
-        <v>29</v>
-      </c>
-      <c r="M1020" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1021">
-        <v>18283</v>
-      </c>
-      <c r="B1021" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1021" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1021" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E1021">
-        <v>0</v>
-      </c>
-      <c r="F1021" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1021" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1021" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1021">
-        <v>1</v>
-      </c>
-      <c r="J1021" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1021" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1021">
-        <v>40</v>
-      </c>
-      <c r="M1021" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1022">
-        <v>18299</v>
-      </c>
-      <c r="B1022" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1022" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1022" s="1">
-        <v>70000</v>
-      </c>
-      <c r="E1022">
-        <v>5</v>
-      </c>
-      <c r="F1022" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1022" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1022" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1022">
-        <v>2</v>
-      </c>
-      <c r="J1022" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1022" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1022">
-        <v>44</v>
-      </c>
-      <c r="M1022" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1023">
-        <v>16466</v>
-      </c>
-      <c r="B1023" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1023" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1023" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E1023">
-        <v>0</v>
-      </c>
-      <c r="F1023" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1023" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1023" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1023">
-        <v>2</v>
-      </c>
-      <c r="J1023" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1023" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1023">
-        <v>32</v>
-      </c>
-      <c r="M1023" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1024">
-        <v>19273</v>
-      </c>
-      <c r="B1024" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1024" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1024" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E1024">
-        <v>2</v>
-      </c>
-      <c r="F1024" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1024" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1024" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1024">
-        <v>0</v>
-      </c>
-      <c r="J1024" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1024" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1024">
-        <v>63</v>
-      </c>
-      <c r="M1024" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1025">
-        <v>22400</v>
-      </c>
-      <c r="B1025" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1025" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1025" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E1025">
-        <v>0</v>
-      </c>
-      <c r="F1025" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1025" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1025" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1025">
-        <v>1</v>
-      </c>
-      <c r="J1025" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1025" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1025">
-        <v>26</v>
-      </c>
-      <c r="M1025" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1026">
-        <v>20942</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1026" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1026" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E1026">
-        <v>0</v>
-      </c>
-      <c r="F1026" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1026" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1026" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1026">
-        <v>1</v>
-      </c>
-      <c r="J1026" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1026" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1026">
-        <v>31</v>
-      </c>
-      <c r="M1026" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1027">
-        <v>18484</v>
-      </c>
-      <c r="B1027" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1027" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1027" s="1">
-        <v>80000</v>
-      </c>
-      <c r="E1027">
-        <v>2</v>
-      </c>
-      <c r="F1027" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1027" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1027" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1027">
-        <v>2</v>
-      </c>
-      <c r="J1027" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1027" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1027">
-        <v>50</v>
-      </c>
-      <c r="M1027" t="s">
         <v>15</v>
       </c>
     </row>

--- a/New/Excel Project Dataset.xlsx
+++ b/New/Excel Project Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B12962B-CC14-4994-A17B-EDECD9363EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA57A5E7-DC35-448C-B365-29C97DDCF9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43145,8 +43145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69DB42A-52B8-4785-B174-B6892EABD019}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43233,7 +43233,7 @@
         <v>42</v>
       </c>
       <c r="M2" t="str">
-        <f xml:space="preserve"> IF(L2&gt;55, "Old", IF(L2 &gt;= 31, "Middle Age", IF(L2 &lt; 31, "Adolescent")))</f>
+        <f xml:space="preserve"> IF(L2&gt;54, "Old", IF(L2 &gt;= 31, "Middle Age", IF(L2 &lt; 31, "Adolescent")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N2" t="s">

--- a/New/Excel Project Dataset.xlsx
+++ b/New/Excel Project Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449693CD-A434-4B1A-933C-DA1BE0D77C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC18A435-BAA7-4073-8B82-B1A9562D3022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,12 +672,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -728,7 +727,22 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -16887,13 +16901,16 @@
   <dataFields count="1">
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="2">
+  <formats count="2">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -17208,7 +17225,7 @@
   <dimension ref="A1:M1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:M1027"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -59333,7 +59350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69DB42A-52B8-4785-B174-B6892EABD019}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView topLeftCell="D982" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -104394,7 +104411,7 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -104406,15 +104423,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B3" t="s">
@@ -104428,44 +104445,44 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>53440</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>55774.058577405856</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>54580.777096114522</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>56208.178438661707</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>60123.966942148763</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>58062.62230919765</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>54874.759152215796</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>57962.577962577961</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>56360</v>
       </c>
     </row>

--- a/New/Excel Project Dataset.xlsx
+++ b/New/Excel Project Dataset.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC18A435-BAA7-4073-8B82-B1A9562D3022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A59A8-6B4D-47DC-82E5-05FF64C03C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,6 +769,1066 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel Project Dataset.xlsx]Pivot Table!PivotTable1</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Table'!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Table'!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Table'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56208.178438661707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14B4-494F-94F9-F270D4C5A743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Table'!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Table'!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Table'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>55774.058577405856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60123.966942148763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-14B4-494F-94F9-F270D4C5A743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1366853664"/>
+        <c:axId val="1366854624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1366853664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366854624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1366854624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366853664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA919B7-38F6-169D-4C37-6DCAA7F4F6BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16840,7 +17900,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BBA9375-0F26-45AF-AF2A-C16030DE0631}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BBA9375-0F26-45AF-AF2A-C16030DE0631}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A2:D6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -16913,6 +17973,32 @@
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="2">
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -104411,7 +105497,7 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -104488,6 +105574,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/New/Excel Project Dataset.xlsx
+++ b/New/Excel Project Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A59A8-6B4D-47DC-82E5-05FF64C03C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DF0CE9-AFD5-45CA-A971-F507926BF5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,6 +1048,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gender</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1113,6 +1168,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Income</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
